--- a/Proyecto Interno/Revisión de literatura/revistas.xlsx
+++ b/Proyecto Interno/Revisión de literatura/revistas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Revisión de literatura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0066DE80-6092-42E6-82A4-1E674B457D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{0066DE80-6092-42E6-82A4-1E674B457D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE7094D-2349-45EF-9E01-9BF7F2999177}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFA12644-6DEA-4385-99C0-446842811765}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{BFA12644-6DEA-4385-99C0-446842811765}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Revista</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Comentario. Todos los textos en ingles.</t>
   </si>
   <si>
-    <t>Tipo de Acceso</t>
-  </si>
-  <si>
     <t>keywords</t>
   </si>
   <si>
@@ -90,13 +87,98 @@
   </si>
   <si>
     <t>Cite Score</t>
+  </si>
+  <si>
+    <t>Global Food Security</t>
+  </si>
+  <si>
+    <t>2211-9124</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>Food systems, food prices, diet cost modelling, affordability, nutrition economics, food security</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/journal/global-food-security</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/journal/global-food-security/publish/guide-for-authors</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/journal/global-food-security/publish/open-access-options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Acceso </t>
+  </si>
+  <si>
+    <t>Open Access USD 5.500</t>
+  </si>
+  <si>
+    <t>9 días</t>
+  </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>Thematic Area:
+Economic, social, biophysical, technological, political and institutional drivers of food security; food systems transformation; food availability, food access, food quality, stability and sustainability of agri-food systems; food prices and market functioning; poverty, inequalities, climate resilience, and the broader socio-economic context of food systems.</t>
+  </si>
+  <si>
+    <t>Food Security</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>31 días (mediana)</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/12571</t>
+  </si>
+  <si>
+    <t>Thematic Area:
+Interdisciplinary research on food security covering food production, food availability, physical and economic access to food, nutritional quality, stability of food systems, markets and trade, socio-economic and political drivers of food insecurity, climate and environmental constraints, nutrition and food safety, global food needs, resilience, and the functioning and transformation of food systems from local to global scales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1876-4525 </t>
+  </si>
+  <si>
+    <t>food security; food availability; food access; food utilization; food systems; food markets; trade; nutrition; food quality; food safety; socio-economic drivers; climate constraints; resilience; global food needs; sustainable food production.</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/journal/12571/submission-guidelines </t>
+  </si>
+  <si>
+    <t>Hybrid (Open Access optional)
+USD  $4190
+Covered 100% by Pontificia Universidad Javeriana–Springer agreement (subject to approval).</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/12571/funding-eligibility?bpid=8200673066</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +190,20 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,10 +285,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,8 +306,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -224,6 +340,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,15 +663,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A0002-57D5-4211-BB25-33A84ECCF72B}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.21875" customWidth="1"/>
+    <col min="16" max="16" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="62.4" x14ac:dyDescent="0.3">
@@ -598,19 +725,135 @@
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6">
+        <v>5</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{43261F18-DF0E-4CA8-B30E-1776DA336021}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{AF90D5F1-4DBA-4257-B73F-72240640186B}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{FA6F8D49-EBE3-4DC7-A29E-9931DD2147F0}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{455CC919-CAA2-4190-8BBE-325546A28431}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{4432AEB7-C432-4A6D-901A-F85E227DF2C9}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{62FF17A0-89B9-4FAA-9F71-01E45AA0D6D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Proyecto Interno/Revisión de literatura/revistas.xlsx
+++ b/Proyecto Interno/Revisión de literatura/revistas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Revisión de literatura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{0066DE80-6092-42E6-82A4-1E674B457D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE7094D-2349-45EF-9E01-9BF7F2999177}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{0066DE80-6092-42E6-82A4-1E674B457D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CFFBF7-41BD-4A51-8B34-06EC948D0C4A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{BFA12644-6DEA-4385-99C0-446842811765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFA12644-6DEA-4385-99C0-446842811765}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>Revista</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">1876-4525 </t>
-  </si>
-  <si>
-    <t>food security; food availability; food access; food utilization; food systems; food markets; trade; nutrition; food quality; food safety; socio-economic drivers; climate constraints; resilience; global food needs; sustainable food production.</t>
   </si>
   <si>
     <t>NR</t>
@@ -172,6 +169,120 @@
   </si>
   <si>
     <t>https://link.springer.com/journal/12571/funding-eligibility?bpid=8200673066</t>
+  </si>
+  <si>
+    <t>Agricultural Economics</t>
+  </si>
+  <si>
+    <t>Wiley / International Association of Agricultural Economists (IAAE)</t>
+  </si>
+  <si>
+    <t>1574-0862</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>Economics, journal,international, association, IAAE, agriculture, development, theory, natural resources, farm management, exchange, structures, rural, journal, article, periodical, analysis, research, entrepreneurship, macroeconomics, policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/page/journal/15740862/homepage/forauthors.html </t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/15740862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://authorservices.wiley.com/author-resources/Journal-Authors/open-access/index.html </t>
+  </si>
+  <si>
+    <t>Thematic Area:
+Economics of agriculture in its broadest sense, including food consumption and nutrition, land use, environmental economics, household-to-market economic analysis, macro-economic aspects of food systems, econometric modelling, statistical hypothesis testing, optimization and simulation models, empirical economic analysis, and globally relevant research on agricultural and food markets.</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Open Access $4,230 USD</t>
+  </si>
+  <si>
+    <t>European Review of Agricultural Economics (ERAE)</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/erae?</t>
+  </si>
+  <si>
+    <t>Oxford University Press (for the European Association of Agricultural Economists)</t>
+  </si>
+  <si>
+    <t>0165-1587</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/erae/pages/General_Instructions?</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/erae/subscribe</t>
+  </si>
+  <si>
+    <t>Open Access $1148.00 USD</t>
+  </si>
+  <si>
+    <t>Thematic Area:
+Economic analysis of agricultural and food production, consumption, and trade; rural development; resource use and conservation; industrial organization of the food sector; institutional dynamics; consumer behaviour; sustainable resource use; bioenergy; agricultural, agri-environmental, and rural policy; trade and development; and methodological innovation in agricultural economics.</t>
+  </si>
+  <si>
+    <t>Agricultural economics; food production; food consumption; food trade; rural development; resource conservation; industrial organisation; institutional dynamics; consumer behaviour; sustainable resource use; bioenergy; Agri-environmental policy; rural policy; trade and development.</t>
+  </si>
+  <si>
+    <t>Food security; food availability; food access; food utilization; food systems; food markets; trade; nutrition; food quality; food safety; socio-economic drivers; climate constraints; resilience; global food needs; sustainable food production.</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Países Bajos</t>
+  </si>
+  <si>
+    <t>Journal of Agricultural Economics</t>
+  </si>
+  <si>
+    <t>0021-857X</t>
+  </si>
+  <si>
+    <t>Wiley / Agricultural Economics Society (AES)</t>
+  </si>
+  <si>
+    <t>11 días (mediana)</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Agricultural Economics, Farm, Rural, Food, Policy, Agricultural Trade, Environment, Climate Change, Resources, Food Security, Productivity, Sustainability, Risk Management, Resilience, Competition, Welfare, Econometrics, Modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/journal/14779552 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/page/journal/14779552/homepage/forauthors.html </t>
+  </si>
+  <si>
+    <t>Thematic Area:
+Applied economics research on food and agricultural sectors, including food security and nutrition, farm-level performance, rural development, international trade, environmental and natural resource economics, land use, climate change, and agri-food industry dynamics; complemented by multidisciplinary insights from statistics, physical sciences, ecology, business management, politics, history, psychology, and sociology.</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/page/journal/14779552/homepage/fundedaccess.html</t>
+  </si>
+  <si>
+    <t>Open Access $4,360 USD</t>
   </si>
 </sst>
 </file>
@@ -289,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -315,14 +426,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,25 +780,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A0002-57D5-4211-BB25-33A84ECCF72B}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="17.88671875" customWidth="1"/>
     <col min="15" max="15" width="23.21875" customWidth="1"/>
-    <col min="16" max="16" width="27.5546875" customWidth="1"/>
+    <col min="16" max="16" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -774,14 +892,16 @@
       <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="N2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="6" t="s">
@@ -801,17 +921,17 @@
       <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>25</v>
@@ -823,25 +943,315 @@
         <v>5</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="N3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -852,8 +1262,17 @@
     <hyperlink ref="G2" r:id="rId4" xr:uid="{455CC919-CAA2-4190-8BBE-325546A28431}"/>
     <hyperlink ref="F3" r:id="rId5" xr:uid="{4432AEB7-C432-4A6D-901A-F85E227DF2C9}"/>
     <hyperlink ref="G3" r:id="rId6" xr:uid="{62FF17A0-89B9-4FAA-9F71-01E45AA0D6D0}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{8B47E04F-3E1C-40EF-AB41-88F80C7D5CF8}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{9B48434B-ADDA-4F95-99AF-051E75885DE4}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{CADD72C9-AD89-4480-8BC2-1D390F387C7C}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{FC826157-9613-4AA3-8D03-34870FE74E83}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{B982F4C4-CC2C-4280-A40C-503E3D66E87E}"/>
+    <hyperlink ref="G5" r:id="rId12" xr:uid="{88E0F73E-A099-4570-9675-1A10E91F21E0}"/>
+    <hyperlink ref="E6" r:id="rId13" xr:uid="{D8255BC0-47A6-4DFF-AB44-FA8D87EF8082}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{9BDA3E6E-8705-49DC-A3DB-B45D6880149C}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{777D9772-0828-441E-8B67-AC38630A0A9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>